--- a/forms/psa_water_sensor_uninstall/psa_water_sensor_uninstall.xlsx
+++ b/forms/psa_water_sensor_uninstall/psa_water_sensor_uninstall.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_water_sensor_uninstall\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="settings" sheetId="2" r:id="rId2"/>
+    <sheet name="choices" sheetId="3" r:id="rId2"/>
+    <sheet name="settings" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -97,68 +98,291 @@
     <t>Any issues to report about the Gateway?</t>
   </si>
   <si>
-    <t>cover_crop_node</t>
-  </si>
-  <si>
-    <t>Scan your Cover Crop Node</t>
-  </si>
-  <si>
-    <t>Any issues to report about the Cover Crop Node?</t>
-  </si>
-  <si>
-    <t>bare_node</t>
-  </si>
-  <si>
-    <t>Scan your Bare Node</t>
-  </si>
-  <si>
-    <t>Any issues to report about your Bare Node?</t>
-  </si>
-  <si>
     <t>date_uninstall</t>
   </si>
   <si>
     <t>issues_gateway</t>
   </si>
   <si>
-    <t>issues_cover_crop_node</t>
-  </si>
-  <si>
-    <t>issues_bare_node</t>
-  </si>
-  <si>
-    <t>issues_sensors</t>
-  </si>
-  <si>
-    <t>end_note</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
     <t>psa_water_sensor_uninstall</t>
   </si>
   <si>
-    <t>You won't scan any sensors, but do you have any issues to report about your sensors, or other issues?</t>
-  </si>
-  <si>
     <t>STOP. This is the form for UNINSTALLING soil water sensors, nodes and/ or gateways. This form is used to both REPLACE broken equipment and REMOVE at the end of the season.</t>
   </si>
   <si>
-    <t xml:space="preserve">If you are REPLACING broken equipment: After completing this Uninstall form, you must also complete another Install form entirely, scanning not just new equipment, but all the equipment. </t>
-  </si>
-  <si>
     <t>gateway</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>select_multiple fail000</t>
+  </si>
+  <si>
+    <t>fail_scan_000</t>
+  </si>
+  <si>
+    <t>Barcode didn't scan?</t>
+  </si>
+  <si>
+    <t>manual_type_barcode_gateway</t>
+  </si>
+  <si>
+    <t>IMPORTANT: Double check correct numbers</t>
+  </si>
+  <si>
+    <t>${fail_scan_000}='alt_barcode_gateway'</t>
+  </si>
+  <si>
+    <t>select_one xv7ma17</t>
+  </si>
+  <si>
+    <t>reinstall_note</t>
+  </si>
+  <si>
+    <t>begin_group</t>
+  </si>
+  <si>
+    <t>group_uv9yg82</t>
+  </si>
+  <si>
+    <t>Nodes in Reps</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>noteaboutreps</t>
+  </si>
+  <si>
+    <t>If you are re-installing any nodes please fill out this form completely, scanning all nodes in all reps and treatments.</t>
+  </si>
+  <si>
+    <t>cover_crop_node_rep1</t>
+  </si>
+  <si>
+    <t>Scan your cover crop node - REP 1</t>
+  </si>
+  <si>
+    <t>select_multiple fail001</t>
+  </si>
+  <si>
+    <t>fail_scan_001</t>
+  </si>
+  <si>
+    <t>manual_type_cover_crop_node_rep1</t>
+  </si>
+  <si>
+    <t>${fail_scan_001}='alt_cover_crop_node_rep1'</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>gps_cover_crop_node_rep1</t>
+  </si>
+  <si>
+    <t>GPS location of your cover crop node - REP 1</t>
+  </si>
+  <si>
+    <t>bare_node_rep1</t>
+  </si>
+  <si>
+    <t>Scan your bare node - REP 1</t>
+  </si>
+  <si>
+    <t>select_multiple fail002</t>
+  </si>
+  <si>
+    <t>fail_scan_002</t>
+  </si>
+  <si>
+    <t>Try again. If it fails multiple times you can manually type the barcode here. IMPORTANT: Double check and use correct cases and dashes.</t>
+  </si>
+  <si>
+    <t>${fail_scan_002}='alt_bare_node_rep1'</t>
+  </si>
+  <si>
+    <t>gps_bare_node_rep1</t>
+  </si>
+  <si>
+    <t>GPS location of your bare node - REP 1</t>
+  </si>
+  <si>
+    <t>issues_rep1</t>
+  </si>
+  <si>
+    <t>Any issues to report? - REP 1</t>
+  </si>
+  <si>
+    <t>note_no_rep2</t>
+  </si>
+  <si>
+    <t>If you don't have a second rep, scroll to the bottom and submit with blanks here</t>
+  </si>
+  <si>
+    <t>cover_crop_node_rep2</t>
+  </si>
+  <si>
+    <t>Scan your cover crop node - REP 2</t>
+  </si>
+  <si>
+    <t>select_multiple fail003</t>
+  </si>
+  <si>
+    <t>fail_scan_003</t>
+  </si>
+  <si>
+    <t>${fail_scan_003}='alt_cover_crop_node_rep2'</t>
+  </si>
+  <si>
+    <t>gps_cover_crop_node_rep2</t>
+  </si>
+  <si>
+    <t>GPS location of your cover crop node - REP 2</t>
+  </si>
+  <si>
+    <t>bare_node_rep2</t>
+  </si>
+  <si>
+    <t>Scan your bare node - REP 2</t>
+  </si>
+  <si>
+    <t>select_multiple fail004</t>
+  </si>
+  <si>
+    <t>fail_scan_004</t>
+  </si>
+  <si>
+    <t>${fail_scan_004}='alt_bare_node_rep2'</t>
+  </si>
+  <si>
+    <t>gps_bare_node_rep2</t>
+  </si>
+  <si>
+    <t>GPS location of your bare node - REP 2</t>
+  </si>
+  <si>
+    <t>issues_rep2</t>
+  </si>
+  <si>
+    <t>Any issues to report? - REP 2</t>
+  </si>
+  <si>
+    <t>end_group</t>
+  </si>
+  <si>
+    <t>noteuninstall</t>
+  </si>
+  <si>
+    <t>If you are re-installing sensors today, you must also fill an sensor uninstall form for the sensors you are removing</t>
+  </si>
+  <si>
+    <t>Is this the final uninstall for the season or a re-installation?</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>xv7ma17</t>
+  </si>
+  <si>
+    <t>re-install</t>
+  </si>
+  <si>
+    <t>Re-installation</t>
+  </si>
+  <si>
+    <t>xv6ma10</t>
+  </si>
+  <si>
+    <t>rep_1</t>
+  </si>
+  <si>
+    <t>Rep 1</t>
+  </si>
+  <si>
+    <t>rep_2</t>
+  </si>
+  <si>
+    <t>Rep 2</t>
+  </si>
+  <si>
+    <t>fail000</t>
+  </si>
+  <si>
+    <t>alt_barcode_gateway</t>
+  </si>
+  <si>
+    <t>Failed Gateway barcode scan</t>
+  </si>
+  <si>
+    <t>fail001</t>
+  </si>
+  <si>
+    <t>alt_cover_crop_node_rep1</t>
+  </si>
+  <si>
+    <t>Failed CC Node barcode scan</t>
+  </si>
+  <si>
+    <t>fail002</t>
+  </si>
+  <si>
+    <t>alt_bare_node_rep1</t>
+  </si>
+  <si>
+    <t>Failed Bare Node barcode scan</t>
+  </si>
+  <si>
+    <t>fail003</t>
+  </si>
+  <si>
+    <t>alt_cover_crop_node_rep2</t>
+  </si>
+  <si>
+    <t>fail004</t>
+  </si>
+  <si>
+    <t>alt_bare_node_rep2</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>Final uninstall for the season</t>
+  </si>
+  <si>
+    <t>final_or_reinstall</t>
+  </si>
+  <si>
+    <t>${final_or_reinstall}='reinstall'</t>
+  </si>
+  <si>
+    <t>Even if you are just replacing one set of nodes or a gateway, please fill out the form completely, scanning or re-scanning all equipment that is in the field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,8 +408,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,20 +717,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" customWidth="1"/>
     <col min="3" max="3" width="47.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -534,7 +761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -542,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -553,13 +780,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -569,14 +796,14 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -584,13 +811,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -604,12 +831,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -618,116 +845,596 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +1442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/forms/psa_water_sensor_uninstall/psa_water_sensor_uninstall.xlsx
+++ b/forms/psa_water_sensor_uninstall/psa_water_sensor_uninstall.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
   <si>
     <t>type</t>
   </si>
@@ -128,9 +128,6 @@
     <t>manual_type_barcode_gateway</t>
   </si>
   <si>
-    <t>IMPORTANT: Double check correct numbers</t>
-  </si>
-  <si>
     <t>${fail_scan_000}='alt_barcode_gateway'</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>fail_scan_002</t>
   </si>
   <si>
-    <t>Try again. If it fails multiple times you can manually type the barcode here. IMPORTANT: Double check and use correct cases and dashes.</t>
-  </si>
-  <si>
     <t>${fail_scan_002}='alt_bare_node_rep1'</t>
   </si>
   <si>
@@ -360,6 +354,15 @@
   </si>
   <si>
     <t>Even if you are just replacing one set of nodes or a gateway, please fill out the form completely, scanning or re-scanning all equipment that is in the field</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
+    <t>Manually type here. IMPORTANT: Double check correct numbers</t>
   </si>
 </sst>
 </file>
@@ -719,12 +722,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
     <col min="2" max="2" width="29.08984375" customWidth="1"/>
     <col min="3" max="3" width="47.36328125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
@@ -750,7 +754,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -858,6 +868,7 @@
       <c r="F9" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -886,7 +897,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -896,7 +907,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -912,19 +923,18 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -935,30 +945,30 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -969,10 +979,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -980,10 +990,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -991,10 +1001,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
@@ -1013,10 +1023,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1026,18 +1036,18 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1048,10 +1058,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1059,10 +1069,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>33</v>
@@ -1084,7 +1094,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1094,18 +1104,18 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1116,10 +1126,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1130,10 +1140,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1144,10 +1154,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1155,10 +1165,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>33</v>
@@ -1180,7 +1190,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1190,18 +1200,18 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1212,10 +1222,10 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1223,10 +1233,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>33</v>
@@ -1248,7 +1258,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1258,18 +1268,18 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1280,10 +1290,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1291,7 +1301,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1302,10 +1312,10 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1321,15 +1331,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1340,101 +1353,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
         <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
